--- a/biology/Zoologie/Centruroides_sculpturatus/Centruroides_sculpturatus.xlsx
+++ b/biology/Zoologie/Centruroides_sculpturatus/Centruroides_sculpturatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides sculpturatus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Arizona, en Californie, au Nevada, en Utah et au Nouveau-Mexique et au Mexique au Sonora[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Arizona, en Californie, au Nevada, en Utah et au Nouveau-Mexique et au Mexique au Sonora,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle syntype mesure 52 mm[3].
-Centruroides sculpturatus mesure de 65 à 70 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle syntype mesure 52 mm.
+Centruroides sculpturatus mesure de 65 à 70 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été placée en synonymie avec Centruroides exilicauda par Williams en 1976[5]. Elle est relevée de synonymie par Valdez-Cruz et al. en 2004[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été placée en synonymie avec Centruroides exilicauda par Williams en 1976. Elle est relevée de synonymie par Valdez-Cruz et al. en 2004.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ewing, 1928 : « The scorpions of the western part of the United States with notes on those occurring in northern Mexico. » Proceedings of the United States National Museum, vol. 73, no 9, p. 1-24 (texte intégral).</t>
         </is>
